--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
@@ -20,17 +20,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">TYPE_GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_GROUP_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-11 17:23:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_GROUP_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -46,9 +79,6 @@
     <t xml:space="preserve">Unique Subcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">Modification Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ontology Id</t>
   </si>
   <si>
@@ -58,12 +88,12 @@
     <t xml:space="preserve">Ontology Version</t>
   </si>
   <si>
+    <t xml:space="preserve">Type Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTERNAL_ENTRY</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Internal Entry</t>
   </si>
   <si>
@@ -73,7 +103,8 @@
     <t xml:space="preserve">ENTRY</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-11 17:23:44</t>
+    <t xml:space="preserve">TEST_GROUP_1
+TEST_GROUP_2</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory</t>
@@ -116,9 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -161,11 +189,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,6 +210,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -191,8 +234,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -238,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +307,26 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,272 +346,340 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.28"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="R9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="S9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
